--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$K$92</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$K$80</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="757" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="304">
   <si>
     <t xml:space="preserve">variable_x</t>
   </si>
@@ -82,7 +82,7 @@
     <t xml:space="preserve">bar</t>
   </si>
   <si>
-    <t xml:space="preserve">child_madr_pourc</t>
+    <t xml:space="preserve">_madr</t>
   </si>
   <si>
     <t xml:space="preserve">In Baraawe children go quite significantly to Madrassa compared to other districts</t>
@@ -94,171 +94,186 @@
     <t xml:space="preserve">Percentage of children scholarized in madrassa per district</t>
   </si>
   <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of children scholarized in formal schools seems quite high in Baraawe and quite low in Jamaame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of children scholarized in formal schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of children scholarized in formal schools per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_sch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The percentage of children scholarized seems quite high in Baraawe and quite low in Jamaame</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of children scholarized</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of children scholarized per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decision_making</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decision making on community affairs seems pretty well coordinated with local authorities in Kismayo and Jamaame and not so well in Marka and Baraawe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How is the decision making on community affairs coordinated with local authorities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How the decision making on community affairs is coordinated with local authorities per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conflict_driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drivers and most trusted government instances</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is quite different from one district to another: &lt;br&gt; Land issues, Clan and  Political tensions and Crime mainly in Baraawe, &lt;br&gt; Access to water in Kismayo; &lt;br&gt;Access to water, to grazing area, Terrorist attacks and Land issues in Jamaame  &lt;br&gt; and  Land issues, Clan and political tensions and access to water in Marka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select District: VS Main drivers of clonflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">radar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Again we see mainly FGS and FMS appart from Marka where FMS is replaced by Governor and DC and some NGO/UN as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most trusted governance system for Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is mostly FMS and FGS in most district appart from Marka where FGS is almost never mentionned and where Governor and DC seem quite important</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government system trusted for employment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodsect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is mainly FMS and UN in Kismayo and Jamaame and FGS in Marka and Baraawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most trusted governance system for Food Security per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">healtht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We see mainly FMS, FGS ans UN and NGOS appart from Marka where FMS is replaced by Governor and DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most trusted governance system for Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">inft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is mainly FMS and FGS in Baraawe; FMS UN and NGOs in Kismayo; FMS, FGS, UN and NGOs in Jamaame and FGS, Governor and DC in Marka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government system trusted for infrastructure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instability_driver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is quite diffrent from one district to another: &lt;br&gt; Conflict, Governance, Clan tensions and Level of incomes mainly in Baraawe, &lt;br&gt; Access to health and water and Drought in Kismayo; &lt;br&gt;Access to health, level of Incomes and Drought Conflict in Markain Jamaame and &lt;br&gt;  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main drivers of instability per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">justt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mostly FGS, FMS and Elders in most districts apart from Marka where FMS is replaced by Governor and DC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most trusted governance system for Justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">need</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health, Education and Food security in Baraawe, mainly health in Kismayo and Jamaame and Health Education and Security in Marka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is FMS and FGS in all district appart from Marka where people do not trust FMS but DC and Governor.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main governance system trusted for security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shelt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is similar to infrastructure though with more importance of UN and NGOs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government system trusted for shelter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">watt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FGS is less mentionned that for the other aspects, specially in Kismayo where is seems to be mainly FMS. For Marka, we see again the importance of DC and Governor. DC are more often mentionned as well as NGO and UN.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most trusted governance system for Water</t>
+  </si>
+  <si>
+    <t xml:space="preserve">educ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People are more educated in Baraawe and Marka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your highest level of education?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest level of education per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hh_children_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Marka there are significantly less children per household and significantly more in Baraawe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of children in the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution of number of children aged 5 to 18 years old per household per district</t>
+  </si>
+  <si>
     <t xml:space="preserve">violin</t>
   </si>
   <si>
-    <t xml:space="preserve">child_sch_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The percentage of children scholarized seems quite high in Baraawe and quite low in Jamaame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of children scholarized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of children scholarized per district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">decision_making</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decision making on community affairs seems pretty well coordinated with local authorities in Kismayo and Jamaame and not so well in Marka and Baraawe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How is the decision making on community affairs coordinated with local authorities?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How the decision making on community affairs is coordinated with local authorities per district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">conflict_driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drivers and most trusted government instances</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is quite different from one district to another: &lt;br&gt; Land issues, Clan and  Political tensions and Crime mainly in Baraawe, &lt;br&gt; Access to water in Kismayo; &lt;br&gt;Access to water, to grazing area, Terrorist attacks and Land issues in Jamaame  &lt;br&gt; and  Land issues, Clan and political tensions and access to water in Marka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Select District: VS Main drivers of clonflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">radar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">educt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Again we see mainly FGS and FMS appart from Marka where FMS is replaced by Governor and DC and some NGO/UN as well</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most trusted governance system for Education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is mostly FMS and FGS in most district appart from Marka where FGS is almost never mentionned and where Governor and DC seem quite important</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government system trusted for employment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">foodsect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is mainly FMS and UN in Kismayo and Jamaame and FGS in Marka and Baraawe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most trusted governance system for Food Security per district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">healtht</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We see mainly FMS, FGS ans UN and NGOS appart from Marka where FMS is replaced by Governor and DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most trusted governance system for Health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">inft</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is mainly FMS and FGS in Baraawe; FMS UN and NGOs in Kismayo; FMS, FGS, UN and NGOs in Jamaame and FGS, Governor and DC in Marka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government system trusted for infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instability_driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is quite diffrent from one district to another: &lt;br&gt; Conflict, Governance, Clan tensions and Level of incomes mainly in Baraawe, &lt;br&gt; Access to health and water and Drought in Kismayo; &lt;br&gt;Access to health, level of Incomes and Drought Conflict in Markain Jamaame and &lt;br&gt;  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main drivers of instability per district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">justt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mostly FGS, FMS and Elders in most districts apart from Marka where FMS is replaced by Governor and DC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most trusted governance system for Justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">need</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Health, Education and Food security in Baraawe, mainly health in Kismayo and Jamaame and Health Education and Security in Marka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main needs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is FMS and FGS in all district appart from Marka where people do not trust FMS but DC and Governor.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main governance system trusted for security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shelt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It is similar to infrastructure though with more importance of UN and NGOs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government system trusted for shelter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">watt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FGS is less mentionned that for the other aspects, specially in Kismayo where is seems to be mainly FMS. For Marka, we see again the importance of DC and Governor. DC are more often mentionned as well as NGO and UN.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Most trusted governance system for Water</t>
-  </si>
-  <si>
-    <t xml:space="preserve">educ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People are more educated in Baraawe and Marka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your highest level of education?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest level of education per district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hh_children_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In Marka there are significantly less children per household and significantly more in Baraawe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Number of children in the household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of number of children aged 5 to 18 years old per household per district</t>
-  </si>
-  <si>
     <t xml:space="preserve">incomerange</t>
   </si>
   <si>
@@ -685,13 +700,7 @@
     <t xml:space="preserve">Trust in family per District</t>
   </si>
   <si>
-    <t xml:space="preserve">school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">child_form_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geo_other</t>
+    <t xml:space="preserve">Villages and Schools</t>
   </si>
   <si>
     <t xml:space="preserve">The scholarization rate in formal school changes quite a lot from one school to another</t>
@@ -700,9 +709,6 @@
     <t xml:space="preserve">School</t>
   </si>
   <si>
-    <t xml:space="preserve">Percentage of children scholarized in formal schools</t>
-  </si>
-  <si>
     <t xml:space="preserve">Distribution of Percentage of children scholarized in formal schools per school</t>
   </si>
   <si>
@@ -757,256 +763,151 @@
     <t xml:space="preserve">Change in engagement with local community since June 2018 per School</t>
   </si>
   <si>
-    <t xml:space="preserve">female_form_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization of girls rate in formal school changes quite a lot from one school to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of girls scholarized in formal schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of girls scholarized in formal schools per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization of girls rate in formal school changes quite a lot from one village to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of girls scholarized in formal schools per village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female_madr_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of girls in madrasa changes quite a lot from one school to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of girls scholarized in madrasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of girls scholarized in madrasa per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of girls in madrasa changes quite a lot from one village to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of girls scholarized in madrasa per village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">female_sch_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of girls  changes quite a lot from one school to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of girls scholarized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of girls scholarized per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of girls  changes quite a lot from one village to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of girls scholarized per village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_form_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys in formal school changes quite a lot from one school to another</t>
+    <t xml:space="preserve">Parent's primary source of income varies quite a lot from one school to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary source of income per school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systm1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception of improvement in provision of food security from the government changes quite a lot from one school to another in Jamaale, Marka and Kismayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How has the provision of foodsecurity by the government changed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in the the provision of food securtity by the government by School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">systm4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception of improvement in provision of health from the government changes quite a lot from one school to another in Jamaale, Marka and Kismayo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How has the provision of health by the government changed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change in the the provision of health by the government by village</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary Source of Income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers are the ones who scholarized the least their children.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your household's PRIMARY source of income?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution of percentage of children scholarized per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers and to a lesser extent breeders are the least educated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest level of education per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Traders, farmers and breeders are more optimistic about their children's future.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How optimistic are you on your children's legitimate livelihoods opportunities in your area?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optimism about children's legitimate livelihoods opportunities in the area per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers and breeders do not generally hold insufficient access to education as a major factor of instability.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Insufficient access to quality education for instability in the area per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conflict between AlShabab and FGS seems more of a problem for traders, farmers and breeders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Conflict FGS-Jubaland for instability in the area per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepotism is less of a problem for traders, farmers and breeders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Nepotism in trust of government per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farmers and breeders have quite a high level of trust in Jubaland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How do you estimate your level of trust in Jubaland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level of trust in Jubaland per primary source of income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Head_Household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only head of households mention political tension as a driver of conflict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main drivers of clonflict per whether the respondent is the head of the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drought is the main response for those who are not the head of the household. While for head of households we find more diverse response like conflict and governance which almost never appear for respondent who are not head of household.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main drivers of instability depending on whether the respondent is the head of the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perception of clan favoritism seems particularly different from one clan to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Clan favoritism in trust of government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Clan Favoritism in trust of government per Clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The trust in Jubaland seems highly correlated to the clans, for instance Tuni, Abgaal, Biida, Habargaadir and Reer Barawe clans are very unlikely to trust the Jubaland.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11a)What is your  Clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Level of trust in Jubaland per clan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subdistrict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subdistrict</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The scholarization rate in formal school changes quite a lot from one subdistrict to another</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sub-District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distribution of Percentage of children scholarized in formal schools per Sub-District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The scholarization rate of boys in formal school changes quite a lot from one subdistrict to another</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage of boys scholarized in formal schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized in formal schools per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys in formal school changes quite a lot from one village to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized in formal schools per village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_madr_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys in madrasa changes quite a lot from one school to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of boys scholarized in madrasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized in madrasa per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys in madrasa changes quite a lot from one village to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized in madrasa per village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">male_sch_pourc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys  changes quite a lot from one school to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of boys scholarized</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys  changes quite a lot from one village to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized per village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parent's primary source of income varies quite a lot from one school to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Primary source of income per school</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systm1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception of improvement in provision of food security from the government changes quite a lot from one school to another in Jamaale, Marka and Kismayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How has the provision of foodsecurity by the government changed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in the the provision of food securtity by the government by School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">systm4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception of improvement in provision of health from the government changes quite a lot from one school to another in Jamaale, Marka and Kismayo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How has the provision of health by the government changed?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change in the the provision of health by the government by village</t>
-  </si>
-  <si>
-    <t xml:space="preserve">income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers are the ones who scholarized the least their children.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is your household's PRIMARY source of income?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of percentage of children scholarized per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers and to a lesser extent breeders are the least educated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest level of education per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicator2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Traders, farmers and breeders are more optimistic about their children's future.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How optimistic are you on your children's legitimate livelihoods opportunities in your area?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Optimism about children's legitimate livelihoods opportunities in the area per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers and breeders do not generally hold insufficient access to education as a major factor of instability.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Insufficient access to quality education for instability in the area per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conflict between AlShabab and FGS seems more of a problem for traders, farmers and breeders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Conflict FGS-Jubaland for instability in the area per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepotism is less of a problem for traders, farmers and breeders.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Nepotism in trust of government per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farmers and breeders have quite a high level of trust in Jubaland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How do you estimate your level of trust in Jubaland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level of trust in Jubaland per primary source of income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Head_Household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Only head of households mention political tension as a driver of conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main drivers of clonflict per whether the respondent is the head of the household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought is the main response for those who are not the head of the household. While for head of households we find more diverse response like conflict and governance which almost never appear for respondent who are not head of household.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main drivers of instability depending on whether the respondent is the head of the household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perception of clan favoritism seems particularly different from one clan to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Clan favoritism in trust of government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Clan Favoritism in trust of government per Clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The trust in Jubaland seems highly correlated to the clans, for instance Tuni, Abgaal, Biida, Habargaadir and Reer Barawe clans are very unlikely to trust the Jubaland.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11a)What is your  Clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Level of trust in Jubaland per clan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subdistrict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subdistrict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate in formal school changes quite a lot from one subdistrict to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of children scholarized in formal schools per Sub-District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys in formal school changes quite a lot from one subdistrict to another</t>
   </si>
   <si>
     <t xml:space="preserve">Distribution of Percentage of boys scholarized in formal schools per Sub-District</t>
@@ -1124,7 +1025,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1135,6 +1036,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1158,17 +1063,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J5" activeCellId="0" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
@@ -1306,9 +1211,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>10</v>
@@ -1325,57 +1230,63 @@
       <c r="F5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="G5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="0" t="s">
         <v>31</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
       <c r="D6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="I6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J6" s="0" t="s">
+      <c r="J6" s="2" t="s">
         <v>35</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>33</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>38</v>
@@ -1384,67 +1295,67 @@
         <v>39</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="K9" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
@@ -1453,24 +1364,24 @@
         <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
@@ -1479,24 +1390,24 @@
         <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
@@ -1505,24 +1416,24 @@
         <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
@@ -1531,24 +1442,24 @@
         <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>10</v>
@@ -1557,24 +1468,24 @@
         <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C15" s="0" t="s">
         <v>10</v>
@@ -1583,24 +1494,24 @@
         <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C16" s="0" t="s">
         <v>10</v>
@@ -1609,24 +1520,24 @@
         <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C17" s="0" t="s">
         <v>10</v>
@@ -1635,24 +1546,24 @@
         <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C18" s="0" t="s">
         <v>10</v>
@@ -1661,27 +1572,27 @@
         <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D19" s="0" t="s">
         <v>12</v>
@@ -1690,16 +1601,16 @@
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="G19" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K19" s="0" t="s">
         <v>18</v>
@@ -1707,13 +1618,13 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>12</v>
@@ -1722,30 +1633,30 @@
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G20" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>12</v>
@@ -1754,30 +1665,30 @@
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G21" s="0" t="s">
         <v>15</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>12</v>
@@ -1786,16 +1697,16 @@
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="G22" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="K22" s="0" t="s">
         <v>18</v>
@@ -1803,13 +1714,13 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="D23" s="0" t="s">
         <v>12</v>
@@ -1818,16 +1729,16 @@
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G23" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="K23" s="0" t="s">
         <v>18</v>
@@ -1835,13 +1746,13 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>12</v>
@@ -1850,16 +1761,16 @@
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K24" s="0" t="s">
         <v>18</v>
@@ -1867,31 +1778,31 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="G25" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K25" s="0" t="s">
         <v>18</v>
@@ -1899,31 +1810,31 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K26" s="0" t="s">
         <v>18</v>
@@ -1931,31 +1842,31 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D27" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="K27" s="0" t="s">
         <v>18</v>
@@ -1963,31 +1874,31 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="K28" s="0" t="s">
         <v>18</v>
@@ -1995,31 +1906,31 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="K29" s="0" t="s">
         <v>18</v>
@@ -2027,31 +1938,31 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="D30" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="K30" s="0" t="s">
         <v>18</v>
@@ -2059,31 +1970,31 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="G31" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K31" s="0" t="s">
         <v>18</v>
@@ -2091,31 +2002,31 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D32" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="G32" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="K32" s="0" t="s">
         <v>18</v>
@@ -2123,31 +2034,31 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D33" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="G33" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>18</v>
@@ -2155,31 +2066,31 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G34" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>18</v>
@@ -2187,31 +2098,31 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G35" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K35" s="0" t="s">
         <v>18</v>
@@ -2219,31 +2130,31 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="G36" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="K36" s="0" t="s">
         <v>18</v>
@@ -2251,13 +2162,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>12</v>
@@ -2266,24 +2177,24 @@
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>12</v>
@@ -2292,16 +2203,16 @@
         <v>13</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K38" s="0" t="s">
         <v>18</v>
@@ -2309,13 +2220,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>12</v>
@@ -2324,16 +2235,16 @@
         <v>13</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G39" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="K39" s="0" t="s">
         <v>18</v>
@@ -2341,13 +2252,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>12</v>
@@ -2356,16 +2267,16 @@
         <v>13</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G40" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="K40" s="0" t="s">
         <v>18</v>
@@ -2373,13 +2284,13 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D41" s="0" t="s">
         <v>12</v>
@@ -2388,16 +2299,16 @@
         <v>13</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="G41" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="K41" s="0" t="s">
         <v>18</v>
@@ -2405,31 +2316,31 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D42" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="G42" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>18</v>
@@ -2437,31 +2348,31 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D43" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G43" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="K43" s="0" t="s">
         <v>18</v>
@@ -2469,31 +2380,31 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D44" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="G44" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="K44" s="0" t="s">
         <v>18</v>
@@ -2501,31 +2412,31 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>18</v>
@@ -2533,31 +2444,31 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>18</v>
@@ -2565,31 +2476,31 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>18</v>
@@ -2597,31 +2508,31 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>18</v>
@@ -2629,31 +2540,31 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>18</v>
@@ -2661,31 +2572,31 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>18</v>
@@ -2693,31 +2604,31 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>18</v>
@@ -2725,31 +2636,31 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>18</v>
@@ -2757,31 +2668,31 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>18</v>
@@ -2789,31 +2700,31 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>18</v>
@@ -2821,31 +2732,31 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="0" t="s">
         <v>10</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>18</v>
@@ -2853,28 +2764,28 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="C56" s="0" t="s">
-        <v>221</v>
+        <v>23</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>23</v>
@@ -2882,28 +2793,28 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="C57" s="0" t="s">
-        <v>221</v>
+        <v>229</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>225</v>
+        <v>26</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>23</v>
@@ -2911,28 +2822,28 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C58" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>23</v>
@@ -2940,28 +2851,28 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F59" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="H59" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="G59" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H59" s="0" t="s">
-        <v>232</v>
-      </c>
       <c r="J59" s="0" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>23</v>
@@ -2969,28 +2880,28 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>23</v>
@@ -2998,28 +2909,28 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>23</v>
@@ -3027,28 +2938,28 @@
     </row>
     <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K62" s="0" t="s">
         <v>18</v>
@@ -3056,115 +2967,109 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>244</v>
+        <v>148</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>245</v>
-      </c>
-      <c r="G63" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H63" s="0" t="s">
         <v>246</v>
       </c>
       <c r="J63" s="0" t="s">
         <v>247</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>23</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="D64" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F64" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="G64" s="0" t="s">
         <v>227</v>
       </c>
-      <c r="C64" s="0" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="0" t="s">
-        <v>222</v>
-      </c>
-      <c r="F64" s="0" t="s">
-        <v>248</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H64" s="0" t="s">
-        <v>246</v>
+      <c r="I64" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H65" s="0" t="s">
-        <v>252</v>
+        <v>231</v>
+      </c>
+      <c r="I65" s="0" t="s">
+        <v>254</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>250</v>
+        <v>28</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H66" s="0" t="s">
-        <v>252</v>
+        <v>258</v>
+      </c>
+      <c r="I66" s="0" t="s">
+        <v>30</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K66" s="0" t="s">
         <v>23</v>
@@ -3172,283 +3077,277 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="C67" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="D67" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D67" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="F67" s="0" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H67" s="0" t="s">
         <v>258</v>
       </c>
+      <c r="I67" s="0" t="s">
+        <v>76</v>
+      </c>
       <c r="J67" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="D68" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>222</v>
-      </c>
       <c r="F68" s="0" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H68" s="0" t="s">
         <v>258</v>
       </c>
+      <c r="I68" s="0" t="s">
+        <v>264</v>
+      </c>
       <c r="J68" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>262</v>
+        <v>99</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H69" s="0" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="I69" s="0" t="s">
+        <v>102</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>262</v>
+        <v>108</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H70" s="0" t="s">
-        <v>264</v>
+        <v>258</v>
+      </c>
+      <c r="I70" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>270</v>
+        <v>258</v>
+      </c>
+      <c r="I71" s="0" t="s">
+        <v>179</v>
       </c>
       <c r="J71" s="0" t="s">
         <v>271</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="F72" s="0" t="s">
         <v>272</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H72" s="0" t="s">
-        <v>270</v>
+        <v>258</v>
+      </c>
+      <c r="I72" s="0" t="s">
+        <v>273</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>220</v>
+        <v>36</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>275</v>
-      </c>
-      <c r="G73" s="0" t="s">
-        <v>224</v>
-      </c>
-      <c r="H73" s="0" t="s">
         <v>276</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>277</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>227</v>
+        <v>56</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="F74" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="G74" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="H74" s="0" t="s">
-        <v>276</v>
-      </c>
       <c r="J74" s="0" t="s">
         <v>279</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+      <c r="G75" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="I75" s="0" t="s">
+        <v>283</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>220</v>
+        <v>280</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>282</v>
+        <v>197</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>222</v>
+        <v>13</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>224</v>
+        <v>286</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>18</v>
@@ -3456,86 +3355,86 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>227</v>
+        <v>288</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>286</v>
+        <v>24</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>222</v>
+        <v>289</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="I77" s="0" t="s">
-        <v>288</v>
+        <v>291</v>
+      </c>
+      <c r="H77" s="0" t="s">
+        <v>26</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F78" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="G78" s="0" t="s">
         <v>291</v>
       </c>
-      <c r="G78" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I78" s="0" t="s">
-        <v>26</v>
+      <c r="H78" s="0" t="s">
+        <v>294</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>70</v>
+        <v>296</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>72</v>
+        <v>298</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>18</v>
@@ -3543,371 +3442,47 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>143</v>
+        <v>288</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C81" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D81" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F81" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I81" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="J81" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="K81" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C82" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D82" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F82" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I82" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="J82" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="K82" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C83" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F83" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="G83" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I83" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="J83" s="0" t="s">
-        <v>305</v>
-      </c>
-      <c r="K83" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="C84" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F84" s="0" t="s">
-        <v>306</v>
-      </c>
-      <c r="G84" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I84" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="J84" s="0" t="s">
-        <v>308</v>
-      </c>
-      <c r="K84" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D85" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F85" s="0" t="s">
-        <v>310</v>
-      </c>
-      <c r="J85" s="0" t="s">
-        <v>311</v>
-      </c>
-      <c r="K85" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>309</v>
-      </c>
-      <c r="D86" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F86" s="0" t="s">
-        <v>312</v>
-      </c>
-      <c r="J86" s="0" t="s">
-        <v>313</v>
-      </c>
-      <c r="K86" s="0" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C87" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="D87" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F87" s="0" t="s">
-        <v>315</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>316</v>
-      </c>
-      <c r="I87" s="0" t="s">
-        <v>317</v>
-      </c>
-      <c r="J87" s="0" t="s">
-        <v>318</v>
-      </c>
-      <c r="K87" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" s="0" t="s">
-        <v>314</v>
-      </c>
-      <c r="C88" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="D88" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="0" t="s">
-        <v>319</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>320</v>
-      </c>
-      <c r="I88" s="0" t="s">
-        <v>307</v>
-      </c>
-      <c r="J88" s="0" t="s">
-        <v>321</v>
-      </c>
-      <c r="K88" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C89" s="0" t="s">
-        <v>221</v>
-      </c>
-      <c r="D89" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F89" s="0" t="s">
-        <v>324</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="H89" s="0" t="s">
-        <v>225</v>
-      </c>
-      <c r="J89" s="0" t="s">
-        <v>326</v>
-      </c>
-      <c r="K89" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C90" s="0" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F90" s="0" t="s">
-        <v>327</v>
-      </c>
-      <c r="G90" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="H90" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="J90" s="0" t="s">
-        <v>328</v>
-      </c>
-      <c r="K90" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D91" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F91" s="0" t="s">
-        <v>330</v>
-      </c>
-      <c r="G91" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="I91" s="0" t="s">
-        <v>331</v>
-      </c>
-      <c r="J91" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="K91" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>322</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>333</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>323</v>
-      </c>
-      <c r="F92" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>325</v>
-      </c>
-      <c r="I92" s="0" t="s">
-        <v>335</v>
-      </c>
-      <c r="J92" s="0" t="s">
-        <v>336</v>
-      </c>
-      <c r="K92" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B1:K92"/>
+  <autoFilter ref="B1:K80"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="305">
   <si>
     <t xml:space="preserve">variable_x</t>
   </si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">Other</t>
   </si>
   <si>
-    <t xml:space="preserve">Presence of armed extremism groups seem to have particularly increased in Marka and somehow in Kismayo.</t>
+    <t xml:space="preserve">Presence of armed extremism groups seem to have particularly increased in Marka, particularly around Jibril Macalin Barow School. It is also the case around Qamqam school in Kismayo.</t>
   </si>
   <si>
     <t xml:space="preserve">District</t>
@@ -85,7 +85,7 @@
     <t xml:space="preserve">_madr</t>
   </si>
   <si>
-    <t xml:space="preserve">In Baraawe children go quite significantly to Madrassa compared to other districts</t>
+    <t xml:space="preserve">In Baraawe children go quite significantly more to Madrassa compared to other districts. This concernes both girls and boys. In the other districts only in Qamqam are the percentage of boys going to Madrasa significant. It is to noted that around this school almost no girls are reported to be scholarized in Madrasa.</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage of children scholarized in madrassa</t>
@@ -100,7 +100,10 @@
     <t xml:space="preserve">_form</t>
   </si>
   <si>
-    <t xml:space="preserve">The percentage of children scholarized in formal schools seems quite high in Baraawe and quite low in Jamaame</t>
+    <t xml:space="preserve">The percentage of children scholarized in formal schools seems quite high in Baraawe and quite low in Jamaame.
+However if we look at school level, we find that the percentage of children scholarized is similar from one school to another with 4 exceptions :
+- In Iftin (Marka) and Wirkoy (Jamaame) almost no child is scholarized
+- In Marka (appart from Iftin) most children are scholarized in formal school</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage of children scholarized in formal schools</t>
@@ -112,7 +115,7 @@
     <t xml:space="preserve">_sch</t>
   </si>
   <si>
-    <t xml:space="preserve">The percentage of children scholarized seems quite high in Baraawe and quite low in Jamaame</t>
+    <t xml:space="preserve">Logically, combining the 2 above graphs, it is in Baraawe that the children are the most scholarized if we take both madrasas and formal schools into account.</t>
   </si>
   <si>
     <t xml:space="preserve">Percentage of children scholarized</t>
@@ -124,7 +127,7 @@
     <t xml:space="preserve">decision_making</t>
   </si>
   <si>
-    <t xml:space="preserve">Decision making on community affairs seems pretty well coordinated with local authorities in Kismayo and Jamaame and not so well in Marka and Baraawe.</t>
+    <t xml:space="preserve">Decision making on community affairs seems pretty well coordinated with local authorities in Kismayo  (In Qamqam) and in Jamaame and not so well in Marka and Baraawe.</t>
   </si>
   <si>
     <t xml:space="preserve">How is the decision making on community affairs coordinated with local authorities?</t>
@@ -139,7 +142,11 @@
     <t xml:space="preserve">Drivers and most trusted government instances</t>
   </si>
   <si>
-    <t xml:space="preserve">It is quite different from one district to another: &lt;br&gt; Land issues, Clan and  Political tensions and Crime mainly in Baraawe, &lt;br&gt; Access to water in Kismayo; &lt;br&gt;Access to water, to grazing area, Terrorist attacks and Land issues in Jamaame  &lt;br&gt; and  Land issues, Clan and political tensions and access to water in Marka </t>
+    <t xml:space="preserve">Main drivers of conflicts are quite difference from one district to another: 
+- In Baraawe it is mainly : Land issues, Clan and  Political tensions and Crime
+- In Kismayo : Access to water
+- In Jamaame : Access to water, Access to grazing area, Terrorist attacks and Land issues 
+- In Marka : Land issues, Clan and political tensions and access to water</t>
   </si>
   <si>
     <t xml:space="preserve">Select District: VS Main drivers of clonflict</t>
@@ -151,7 +158,7 @@
     <t xml:space="preserve">educt</t>
   </si>
   <si>
-    <t xml:space="preserve">Again we see mainly FGS and FMS appart from Marka where FMS is replaced by Governor and DC and some NGO/UN as well</t>
+    <t xml:space="preserve">It is mostly FMS and FGS in most district appart from Marka where FGS is almost never mentionned and where Governor and DC seem quite important. UN and NGOs are also sometimes mentionned.</t>
   </si>
   <si>
     <t xml:space="preserve">Most trusted governance system for Education</t>
@@ -160,7 +167,7 @@
     <t xml:space="preserve">empt</t>
   </si>
   <si>
-    <t xml:space="preserve">It is mostly FMS and FGS in most district appart from Marka where FGS is almost never mentionned and where Governor and DC seem quite important</t>
+    <t xml:space="preserve">It is mostly FMS and FGS in most district appart from Marka where FGS is almost never mentionned and where Governor, DC  and Elders are quite important</t>
   </si>
   <si>
     <t xml:space="preserve">Government system trusted for employment</t>
@@ -178,7 +185,7 @@
     <t xml:space="preserve">healtht</t>
   </si>
   <si>
-    <t xml:space="preserve">We see mainly FMS, FGS ans UN and NGOS appart from Marka where FMS is replaced by Governor and DC</t>
+    <t xml:space="preserve">We see mainly FMS, FGS and UN and NGOs appart from Marka where FMS is replaced by Governor, DC and Elders</t>
   </si>
   <si>
     <t xml:space="preserve">Most trusted governance system for Health</t>
@@ -187,7 +194,10 @@
     <t xml:space="preserve">inft</t>
   </si>
   <si>
-    <t xml:space="preserve">It is mainly FMS and FGS in Baraawe; FMS UN and NGOs in Kismayo; FMS, FGS, UN and NGOs in Jamaame and FGS, Governor and DC in Marka</t>
+    <t xml:space="preserve">- In Baraawe it is mainly FMS and FGS 
+- In Kismayo : FMS UN and NGOs
+- In Jamaame : FMS, FGS, UN and NGOs
+- In Marka :  FGS, Governor and DC</t>
   </si>
   <si>
     <t xml:space="preserve">Government system trusted for infrastructure</t>
@@ -196,7 +206,10 @@
     <t xml:space="preserve">instability_driver</t>
   </si>
   <si>
-    <t xml:space="preserve">It is quite diffrent from one district to another: &lt;br&gt; Conflict, Governance, Clan tensions and Level of incomes mainly in Baraawe, &lt;br&gt; Access to health and water and Drought in Kismayo; &lt;br&gt;Access to health, level of Incomes and Drought Conflict in Markain Jamaame and &lt;br&gt;  </t>
+    <t xml:space="preserve">It is quite diffrent from one district to another: 
+- In Baraawe : Conflict, Governance, Clan tensions and Level of incomes mainly
+- In Kismayo and Jammame : Access to health and water and Drought 
+- In Marka : Mainly conflict</t>
   </si>
   <si>
     <t xml:space="preserve">Main drivers of instability per district</t>
@@ -214,7 +227,9 @@
     <t xml:space="preserve">need</t>
   </si>
   <si>
-    <t xml:space="preserve">Health, Education and Food security in Baraawe, mainly health in Kismayo and Jamaame and Health Education and Security in Marka</t>
+    <t xml:space="preserve">- In Baraawe Health, Education and Food security
+- In Kismayo and Jamaame: Health 
+- In Marka: Health, Education and Security</t>
   </si>
   <si>
     <t xml:space="preserve">Main needs</t>
@@ -232,7 +247,11 @@
     <t xml:space="preserve">shelt</t>
   </si>
   <si>
-    <t xml:space="preserve">It is similar to infrastructure though with more importance of UN and NGOs</t>
+    <t xml:space="preserve">It is similar to infrastructure though with more importance of UN and NGOs :
+- In Baraawe it is mainly FMS and FGS  
+- In Kismayo : FMS UN and NGOs 
+- In Jamaame : FMS, FGS, UN and NGOs 
+- In Marka :  FGS, Governor, DC a,d Elders</t>
   </si>
   <si>
     <t xml:space="preserve">Government system trusted for shelter</t>
@@ -241,7 +260,9 @@
     <t xml:space="preserve">watt</t>
   </si>
   <si>
-    <t xml:space="preserve">FGS is less mentionned that for the other aspects, specially in Kismayo where is seems to be mainly FMS. For Marka, we see again the importance of DC and Governor. DC are more often mentionned as well as NGO and UN.</t>
+    <t xml:space="preserve">FGS is less mentionned than for the other aspects, specially in Kismayo where is seems to be mainly FMS. 
+For Marka, we see again the importance of DC, Governor a,d Elders. 
+DC are more often mentionned as well as NGO and UN.</t>
   </si>
   <si>
     <t xml:space="preserve">Most trusted governance system for Water</t>
@@ -277,7 +298,7 @@
     <t xml:space="preserve">incomerange</t>
   </si>
   <si>
-    <t xml:space="preserve">People seem richer in Marka and Baraawe</t>
+    <t xml:space="preserve">People seem richer in Marka and Baraawe. This is also the case if we look at school level with some differences within districts.</t>
   </si>
   <si>
     <t xml:space="preserve">Average monthly income in USD</t>
@@ -289,7 +310,7 @@
     <t xml:space="preserve">indicator1</t>
   </si>
   <si>
-    <t xml:space="preserve">The perception regarding government role in improving access to education is particularly positive in Kismayo and quite low in Jamaame</t>
+    <t xml:space="preserve">The perception regarding government role in improving access to education is particularly positive in Kismayo and quite low in Jamaame (Particularly around Wirkoy Primary School)</t>
   </si>
   <si>
     <t xml:space="preserve">How is your perception regarding government role in improving access to education?</t>
@@ -301,7 +322,7 @@
     <t xml:space="preserve">indicator3</t>
   </si>
   <si>
-    <t xml:space="preserve">People are particularly pessimistic in Baraawe</t>
+    <t xml:space="preserve">People are particularly pessimistic in Baraawe. In the other districts it depends quite a lot from one school to another.</t>
   </si>
   <si>
     <t xml:space="preserve">How optimistic are you on your children's legitimate livelihoods opportunities anywhere in Somalia?</t>
@@ -313,7 +334,7 @@
     <t xml:space="preserve">indicator4</t>
   </si>
   <si>
-    <t xml:space="preserve">People seems quite optimistic in Jammane as per livelihoods opportunities ofr their children outside of Somalia.</t>
+    <t xml:space="preserve">In Jammane, people seem quite optimistic about future livelihoods opportunities for their children outside of Somalia.</t>
   </si>
   <si>
     <t xml:space="preserve">How optimistic are you on your children's legitimate livelihoods opportunities outside of Somalia?</t>
@@ -328,7 +349,7 @@
     <t xml:space="preserve">Instability factors</t>
   </si>
   <si>
-    <t xml:space="preserve">Importance of Insufficient access is mentionned particularly in Marka and Baraawe where the percentage of children scholarised is the highest.</t>
+    <t xml:space="preserve">Everywhere in Barawe, insufficient access to education seems to be a major problem for instability. It is to be noted that this is the district with the highest rate of scholarized children (As you can see in Other). This can be explained mainly by the high proportion of children scholarized in Madrasas in the District.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Insufficient access to quality education for instability in the area</t>
@@ -340,7 +361,7 @@
     <t xml:space="preserve">instability_factor12</t>
   </si>
   <si>
-    <t xml:space="preserve">Poor access to water is a very important factor of instability in Jamaane</t>
+    <t xml:space="preserve">Poor access to water is a very important factor of instability in Jamaane and more particularly in Yontoy village.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Poor access to water for instability in the area</t>
@@ -352,7 +373,7 @@
     <t xml:space="preserve">instability_factor13</t>
   </si>
   <si>
-    <t xml:space="preserve">Conflict FGS-Jubaland seems pretty high in Marka and in Jamaame</t>
+    <t xml:space="preserve">Conflict FGS-Jubaland seems to be a major problem in Jamaame and more specificaly in Yontoy but also the problem is also often mentionned in Marka and in Qamqam (Kismayo District)</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Conflict FGS-Jubaland for instability in the area</t>
@@ -364,7 +385,7 @@
     <t xml:space="preserve">instability_factor15</t>
   </si>
   <si>
-    <t xml:space="preserve">Conflict AS-Government is a very important factor of instability in Jamaane</t>
+    <t xml:space="preserve">Conflict AS-Government is a very important factor of instability in Jamaane. Looking at village level, the problem seems to be important for everyone appart from people depending from Bulgadud School in Kismayo.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Conflict As - Gov for instability in the area</t>
@@ -376,7 +397,7 @@
     <t xml:space="preserve">instability_factor16</t>
   </si>
   <si>
-    <t xml:space="preserve">Taxation seems not to be a problem in Kismayo compared to other districts.</t>
+    <t xml:space="preserve">Taxation seems not to be a problem in Kismayo compared to other districts. It seems particularly problematic in Yontoy.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of taxation for instability</t>
@@ -388,7 +409,7 @@
     <t xml:space="preserve">instability_factor17</t>
   </si>
   <si>
-    <t xml:space="preserve">Corruption seems to be quite low in Kismayo compared to other districts.</t>
+    <t xml:space="preserve">Corruption seems to be a lower problem in Kismayo compared to other districts (specialy around Bulgadud school).</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of corruption for instability</t>
@@ -400,7 +421,7 @@
     <t xml:space="preserve">instability_factor2</t>
   </si>
   <si>
-    <t xml:space="preserve">Access to health seems to be much more difficult in Baraawe</t>
+    <t xml:space="preserve">Access to health seems to be much more difficult in Baraawe and less difficult in Kismayo. In the other districts there seems to be local differences.</t>
   </si>
   <si>
     <t xml:space="preserve">Insufficient access to quality health services</t>
@@ -412,7 +433,7 @@
     <t xml:space="preserve">instability_factor3</t>
   </si>
   <si>
-    <t xml:space="preserve">Access to employment seem particularly problematic in Baraawe and Jamaame</t>
+    <t xml:space="preserve">Access to employment seems particularly problematic in Baraawe and Jamaame. This also seem to be the case in Qamqam (Kismayo)</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Low access to employment for instability in the area</t>
@@ -424,7 +445,7 @@
     <t xml:space="preserve">instability_factor4</t>
   </si>
   <si>
-    <t xml:space="preserve">Low level of incomes seems to be a problem particularly in Jamaame and Baraawe even though people are richer in Baraawe.</t>
+    <t xml:space="preserve">Low level of incomes seems to be a problem particularly in Jamaame and Baraawe even though people are richer in Baraawe. This is also a major problem in Qamqam (Kismayo)</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Low level of incomes for instability in the area</t>
@@ -436,7 +457,7 @@
     <t xml:space="preserve">instability_factor5</t>
   </si>
   <si>
-    <t xml:space="preserve">Though the trust seems to be the highest in Jamaame, unfair access to justice seems to be a quite important  factor of instability in this district.</t>
+    <t xml:space="preserve">Unfair access to justice seems to be a quite important  factor of instability everywhere and particularly in Jamaame and Baraawe district and in Qamqam (Kismayo District).</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Unfair Access to Justice in trust of government</t>
@@ -448,7 +469,7 @@
     <t xml:space="preserve">instability_factor7</t>
   </si>
   <si>
-    <t xml:space="preserve">Low performance of traditional governance system seems very important in Jamaame</t>
+    <t xml:space="preserve">Low performance of traditional governance system seems very important in Jamaame. In the other district it is also often mentionned as a problem everywhere but in Bulagadud (Kismayo District)</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Low performance of traditional governance system for instability in the area</t>
@@ -460,7 +481,7 @@
     <t xml:space="preserve">instability_factor8</t>
   </si>
   <si>
-    <t xml:space="preserve">Low performance of formal governance system seems very important in Jamaame</t>
+    <t xml:space="preserve">Low performance of formal governance system is mentionned similarly to low performance of traditional governance everywhere.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Low performance of formal governance system system for instability in the area</t>
@@ -472,7 +493,7 @@
     <t xml:space="preserve">primaryincome</t>
   </si>
   <si>
-    <t xml:space="preserve">It is majoritarely Farming appart from Baraawe where most people are casual labour or are fishing.</t>
+    <t xml:space="preserve">Appart from Baraawe where most people are casual labour or are fishing respondents are mainly farmers. In Marka though, this depends from one village to another.</t>
   </si>
   <si>
     <t xml:space="preserve">Primary source of income per district</t>
@@ -484,7 +505,7 @@
     <t xml:space="preserve">security</t>
   </si>
   <si>
-    <t xml:space="preserve">Security seems more of a problem in Baraawe and Marka</t>
+    <t xml:space="preserve">Security seems more of a problem in Baraawe and Marka. And this, specially around Iftin Primary School (Marka) and Alnureyn Primary School (Baraawe)</t>
   </si>
   <si>
     <t xml:space="preserve">How is the security situation in the area?</t>
@@ -496,7 +517,7 @@
     <t xml:space="preserve">social_cohesion</t>
   </si>
   <si>
-    <t xml:space="preserve">Social cohesion seems quite lower in Marka and Baraawe</t>
+    <t xml:space="preserve">Social cohesion seems quite lower in Marka and Baraawe. This is however quite different from one school to another. For instance in Qamqam, social cohesion seems to be particularly strong.</t>
   </si>
   <si>
     <t xml:space="preserve">How is the social cohesion in your area?</t>
@@ -508,7 +529,7 @@
     <t xml:space="preserve">systm5</t>
   </si>
   <si>
-    <t xml:space="preserve">Security seems to be better ensured by government in Kismayo</t>
+    <t xml:space="preserve">Security seems to be better ensured by government in Kismayo. However this hides some important differences at school level.</t>
   </si>
   <si>
     <t xml:space="preserve">How has the provision of security by the government changed?</t>
@@ -520,13 +541,13 @@
     <t xml:space="preserve">systm6</t>
   </si>
   <si>
-    <t xml:space="preserve">There seems to have been an improvement in provision of justice by the government in Kismayo</t>
+    <t xml:space="preserve">There seems to have been an improvement in provision of justice by the government in Qamqam (Kismayo) only.</t>
   </si>
   <si>
     <t xml:space="preserve">How has the provision of justice by the government changed?</t>
   </si>
   <si>
-    <t xml:space="preserve">Change in provision of security by the government by district</t>
+    <t xml:space="preserve">Change in provision of justice by the government by district</t>
   </si>
   <si>
     <t xml:space="preserve">trust_obstacles1</t>
@@ -535,52 +556,62 @@
     <t xml:space="preserve">Trust Obstacles</t>
   </si>
   <si>
-    <t xml:space="preserve">Clan favoritism seems particularly high among respondents from Marka and Baraawe and particularly low in Jamaame and Kismayo</t>
+    <t xml:space="preserve">Clan favoritism seems particularly high among respondents from Marka and Baraawe and particularly low in Jamaame and Kismayo.
+There are however differences in some districts :
+- In Marka, this does not seem to be a problem in Jibrin Macalin Barow School
+- In Kismayo there seems to be some clan favoritism in Bulgadud
+- In Barawe, caln favoritism seems pretty important in Qasim Al Barawi School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Clan Favoritism in trust of government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Clan Favoritism in trust of government per District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust_obstacles3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corruption seems particularly problematic in Baraawe.
+At School level, it seems that this is only in Qamqam (Kismayo) and Jibrin Macalin Barow (Marka) that corruption is not a major issue.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Corruption in trust of government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Corruption in trust of government per district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust_obstacles4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nepotism seems quite a problem in Marka and Baraawe and less in Kismayo and Jamaame.
+However, looking at school level there are some differences in Kismayo between Qamqam and Bulgadud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Nepotism in trust of government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Importance of Nepotism in trust of government per District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust_obstacles7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poor communication is an important factor in trust for government in the Marka and Baraawe.
+At lower level, at School level, we can see that appart from Qamqam school (and to lower extent the schools in Jamaame) the problem seem present everywhere at a comparable level.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Poor Communication in trust of government</t>
   </si>
   <si>
-    <t xml:space="preserve">Importance of Clan Favoritism in trust of government per District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust_obstacles3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Corruption seems particularly problematic in Baraawe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Corruption in trust of government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Corruption in trust of government per district</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust_obstacles4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nepotism seems quite a problem in Marka and Baraawe and less in Kismayo and Jamaame</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Nepotism in trust of government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importance of Nepotism in trust of government per District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust_obstacles7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poor communication is an important factor in trust for government in the same districts where the trust in elders is low (Marka and Baraawe)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Importance of Poor  Communication in trust of government</t>
   </si>
   <si>
     <t xml:space="preserve">trust_obstacles8</t>
   </si>
   <si>
-    <t xml:space="preserve">Insufficient  gender inclusion seems to be less of a problem in government trust in Jamaane</t>
+    <t xml:space="preserve">Insufficient  gender inclusion seems to be less of a problem in government trust in Jamaane with some differences at school levels.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Insufficient  gender inclusion in trust of government</t>
@@ -592,7 +623,7 @@
     <t xml:space="preserve">trust_obstacles9</t>
   </si>
   <si>
-    <t xml:space="preserve">Insufficient   youth inclusion seems to be less of a problem in government trust in Jamaane</t>
+    <t xml:space="preserve">Insufficient   youth inclusion seems to be less of a problem in government trust in Jamaane, also with some differences at lower levels.</t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Insufficient  youth inclusion in trust of government</t>
@@ -607,7 +638,9 @@
     <t xml:space="preserve">Trusts</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in FGS is particularly high in Jamaame.</t>
+    <t xml:space="preserve">Trust in FGS is particularly high in Jamaame. In the other districts, this seems to depend on schools :
+- In Marka the level of trust in FGS is parlicularly high in Jibril Makalin Barow
+- In Braawe, people seems to have a pretty well opinion of FGS in Qasim Al-Barawi School</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in FGS?</t>
@@ -619,7 +652,7 @@
     <t xml:space="preserve">trust2</t>
   </si>
   <si>
-    <t xml:space="preserve">Level of trust in Juba Land is particularly high in Kismayo and Jamaame, low in Marka and particularly low in Baraawe</t>
+    <t xml:space="preserve">Level of trust in Juba Land is particularly high in Kismayo and Jamaame, low in Marka and particularly low in Baraawe. Looking at lower level, this seems to be clearly District Related. Indeed the same opinion seems clearly shared accross villages, schools or sub-districts in the same District and also this does not seem to be clan related.</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in Juba Land</t>
@@ -631,7 +664,8 @@
     <t xml:space="preserve">trust3</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in Governor seems pretty high in Jamaame</t>
+    <t xml:space="preserve">Trust in Governor seems pretty high in Jamaame.
+In Marka it is also very good in Jibril Makalin Barow School.</t>
   </si>
   <si>
     <t xml:space="preserve">Trust in elders seems pretty low in your Governor</t>
@@ -643,7 +677,7 @@
     <t xml:space="preserve">trust4</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in District Commissioner is particularly high in Jamaame.</t>
+    <t xml:space="preserve">Trust in District Commissioner is particularly high in Jamaame. Looking at school level, this is particularly the case in Yontoy Primary School</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in District Commissioner?</t>
@@ -655,7 +689,8 @@
     <t xml:space="preserve">trust5</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in Clan regulations is particularly low in Kismayo and Marka.</t>
+    <t xml:space="preserve">Trust in Clan regulations is particularly low in Kismayo and Marka.
+In Marka this seems to be particularly problematic in Jibril Makalin Barow School.</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in Clan regulations</t>
@@ -667,7 +702,11 @@
     <t xml:space="preserve">trust6</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in elders seems pretty low in Marka</t>
+    <t xml:space="preserve">Trust in elders seems pretty low in Marka.
+But if we look at school level, this is quite different from one school to another in the same District :
+- In Marka, people from Jibtil Makalin Barow School have a good level of trust in Elders
+- In Kismayo, people from Qamqam school have a very good trust in Elders while people from Bulgadud, not so much.
+- In Barawe, the trust in Elders is pretty well in Sh Bimanlow School</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in elders</t>
@@ -679,7 +718,7 @@
     <t xml:space="preserve">trust7</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in community seems quite lower in Marka and Baraawe</t>
+    <t xml:space="preserve">Trust in community is similar to trust in Elders both at District and School level.</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in your community?</t>
@@ -691,7 +730,8 @@
     <t xml:space="preserve">trust8</t>
   </si>
   <si>
-    <t xml:space="preserve">Trust in family seems pretty low in Marka</t>
+    <t xml:space="preserve">Trust in family seems pretty low in Marka.
+This is not the case at all in Jibril Macalin Barow School but in the other 2 schools of the District (Bulacadad and particularly Iftin)</t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in your Family</t>
@@ -941,8 +981,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.00\ %"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -950,7 +991,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -973,7 +1013,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1025,7 +1064,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1035,6 +1074,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1060,27 +1103,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K1048576"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" activeCellId="0" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="F81" activeCellId="0" sqref="F81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="11" style="0" width="8.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1179,7 +1226,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1195,7 +1242,7 @@
       <c r="E4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="0" t="s">
@@ -1272,7 +1319,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
@@ -1288,7 +1335,7 @@
       <c r="E7" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="0" t="s">
@@ -1298,7 +1345,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
@@ -1324,7 +1371,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
@@ -1350,7 +1397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
@@ -1376,7 +1423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
@@ -1402,7 +1449,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="59.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
@@ -1418,7 +1465,7 @@
       <c r="E12" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
       <c r="J12" s="0" t="s">
@@ -1428,7 +1475,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
@@ -1444,7 +1491,7 @@
       <c r="E13" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="2" t="s">
         <v>57</v>
       </c>
       <c r="J13" s="0" t="s">
@@ -1454,7 +1501,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
@@ -1480,7 +1527,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
@@ -1496,7 +1543,7 @@
       <c r="E15" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="J15" s="0" t="s">
@@ -1506,7 +1553,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
@@ -1532,7 +1579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
@@ -1548,7 +1595,7 @@
       <c r="E17" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="2" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="0" t="s">
@@ -1558,7 +1605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
@@ -1574,7 +1621,7 @@
       <c r="E18" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="J18" s="0" t="s">
@@ -1776,7 +1823,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
@@ -1808,7 +1855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
@@ -1840,7 +1887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
@@ -1872,7 +1919,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
@@ -1904,7 +1951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
@@ -1936,7 +1983,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
@@ -1968,7 +2015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
@@ -2000,7 +2047,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
@@ -2032,7 +2079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
@@ -2064,7 +2111,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
@@ -2096,7 +2143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
@@ -2128,7 +2175,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
@@ -2314,7 +2361,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
@@ -2330,7 +2377,7 @@
       <c r="E42" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F42" s="0" t="s">
+      <c r="F42" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G42" s="0" t="s">
@@ -2346,7 +2393,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
@@ -2362,7 +2409,7 @@
       <c r="E43" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="0" t="s">
+      <c r="F43" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G43" s="0" t="s">
@@ -2378,7 +2425,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
@@ -2394,7 +2441,7 @@
       <c r="E44" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F44" s="0" t="s">
+      <c r="F44" s="2" t="s">
         <v>178</v>
       </c>
       <c r="G44" s="0" t="s">
@@ -2410,7 +2457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
@@ -2426,23 +2473,23 @@
       <c r="E45" s="0" t="s">
         <v>169</v>
       </c>
-      <c r="F45" s="0" t="s">
+      <c r="F45" s="3" t="s">
         <v>182</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K45" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
@@ -2450,7 +2497,7 @@
         <v>10</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>12</v>
@@ -2459,22 +2506,22 @@
         <v>169</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K46" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
@@ -2482,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D47" s="0" t="s">
         <v>12</v>
@@ -2491,22 +2538,22 @@
         <v>169</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="K47" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
@@ -2514,31 +2561,31 @@
         <v>10</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D48" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F48" s="0" t="s">
         <v>194</v>
       </c>
+      <c r="F48" s="2" t="s">
+        <v>195</v>
+      </c>
       <c r="G48" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K48" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
@@ -2546,31 +2593,31 @@
         <v>10</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D49" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="K49" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
@@ -2578,31 +2625,31 @@
         <v>10</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D50" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F50" s="0" t="s">
-        <v>202</v>
+        <v>194</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="G50" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K50" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
@@ -2610,31 +2657,31 @@
         <v>10</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D51" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G51" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K51" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
@@ -2642,31 +2689,31 @@
         <v>10</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D52" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F52" s="0" t="s">
-        <v>210</v>
+        <v>194</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="G52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K52" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
@@ -2674,31 +2721,31 @@
         <v>10</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F53" s="0" t="s">
-        <v>214</v>
+        <v>194</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="G53" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K53" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>51</v>
       </c>
@@ -2706,31 +2753,31 @@
         <v>10</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D54" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G54" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K54" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
@@ -2738,89 +2785,89 @@
         <v>10</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D55" s="0" t="s">
         <v>12</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="F55" s="0" t="s">
-        <v>222</v>
+        <v>194</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="G55" s="0" t="s">
         <v>15</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K55" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B56" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H56" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K56" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="C57" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H57" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K57" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>55</v>
       </c>
@@ -2831,54 +2878,54 @@
         <v>19</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K58" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C59" s="0" t="s">
         <v>19</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K59" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>57</v>
       </c>
@@ -2889,54 +2936,54 @@
         <v>28</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H60" s="0" t="s">
         <v>30</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K60" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C61" s="0" t="s">
         <v>28</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H61" s="0" t="s">
         <v>30</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K61" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>59</v>
       </c>
@@ -2944,28 +2991,28 @@
         <v>23</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K62" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
@@ -2976,19 +3023,19 @@
         <v>148</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K63" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>61</v>
       </c>
@@ -2996,57 +3043,57 @@
         <v>23</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K64" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K65" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>63</v>
       </c>
@@ -3057,25 +3104,25 @@
         <v>28</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I66" s="0" t="s">
         <v>30</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K66" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
@@ -3086,25 +3133,25 @@
         <v>74</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I67" s="0" t="s">
         <v>76</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K67" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>65</v>
       </c>
@@ -3112,28 +3159,28 @@
         <v>148</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K68" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>66</v>
       </c>
@@ -3144,25 +3191,25 @@
         <v>99</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I69" s="0" t="s">
         <v>102</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K69" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>67</v>
       </c>
@@ -3173,25 +3220,25 @@
         <v>108</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I70" s="0" t="s">
         <v>110</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K70" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>68</v>
       </c>
@@ -3202,25 +3249,25 @@
         <v>177</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I71" s="0" t="s">
         <v>179</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K71" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>69</v>
       </c>
@@ -3228,28 +3275,28 @@
         <v>148</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K72" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>70</v>
       </c>
@@ -3257,22 +3304,22 @@
         <v>36</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D73" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K73" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>71</v>
       </c>
@@ -3280,27 +3327,27 @@
         <v>56</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D74" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K74" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C75" s="0" t="s">
         <v>168</v>
@@ -3309,180 +3356,174 @@
         <v>13</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K75" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>13</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K76" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C77" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H77" s="0" t="s">
         <v>26</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K77" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C78" s="0" t="s">
         <v>24</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K78" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K79" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K80" s="0" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B1:K80"/>
+  <autoFilter ref="B1:K80">
+    <filterColumn colId="3">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Other"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$K$80</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$B$1:$K$78</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="301">
   <si>
     <t xml:space="preserve">variable_x</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t xml:space="preserve">graphtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment</t>
   </si>
   <si>
     <t xml:space="preserve">district</t>
@@ -155,6 +158,9 @@
     <t xml:space="preserve">radar</t>
   </si>
   <si>
+    <t xml:space="preserve">5 means first Main driver, 4 means second main driver, …, 1 means fifth main driver and 0 means that it was not mentionned at all. </t>
+  </si>
+  <si>
     <t xml:space="preserve">educt</t>
   </si>
   <si>
@@ -162,6 +168,9 @@
   </si>
   <si>
     <t xml:space="preserve">Most trusted governance system for Education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 means main trusted instance, 2 means second main trusted instance, 1 means third main trusted instance and 0 means that it was not mentionned.</t>
   </si>
   <si>
     <t xml:space="preserve">empt</t>
@@ -233,6 +242,9 @@
   </si>
   <si>
     <t xml:space="preserve">Main needs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 means main need, 2 means second main need, 1 third main need and 0 means that it was not mentionned.</t>
   </si>
   <si>
     <t xml:space="preserve">sect</t>
@@ -854,7 +866,7 @@
     <t xml:space="preserve">indicator2</t>
   </si>
   <si>
-    <t xml:space="preserve">Traders, farmers and breeders are more optimistic about their children's future.</t>
+    <t xml:space="preserve">Traders, farmers and breeders are more optimistic about their children's future.   </t>
   </si>
   <si>
     <t xml:space="preserve">How optimistic are you on your children's legitimate livelihoods opportunities in your area?</t>
@@ -863,25 +875,25 @@
     <t xml:space="preserve">Optimism about children's legitimate livelihoods opportunities in the area per primary source of income</t>
   </si>
   <si>
-    <t xml:space="preserve">Farmers and breeders do not generally hold insufficient access to education as a major factor of instability.</t>
+    <t xml:space="preserve">Farmers and breeders do not generally held insufficient access to education as a major factor of instability. </t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Insufficient access to quality education for instability in the area per primary source of income</t>
   </si>
   <si>
-    <t xml:space="preserve">Conflict between AlShabab and FGS seems more of a problem for traders, farmers and breeders.</t>
+    <t xml:space="preserve">Conflict between Al Shabab and FGS seems more of a problem for traders, farmers and breeders. </t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Conflict FGS-Jubaland for instability in the area per primary source of income</t>
   </si>
   <si>
-    <t xml:space="preserve">Nepotism is less of a problem for traders, farmers and breeders.</t>
+    <t xml:space="preserve">Nepotism seems to be less of a problem for farmers and breeders. </t>
   </si>
   <si>
     <t xml:space="preserve">Importance of Nepotism in trust of government per primary source of income</t>
   </si>
   <si>
-    <t xml:space="preserve">Farmers and breeders have quite a high level of trust in Jubaland</t>
+    <t xml:space="preserve">Farmers and breeders have quite a high level of trust in Jubaland. </t>
   </si>
   <si>
     <t xml:space="preserve">How do you estimate your level of trust in Jubaland</t>
@@ -893,13 +905,15 @@
     <t xml:space="preserve">Head_Household</t>
   </si>
   <si>
-    <t xml:space="preserve">Only head of households mention political tension as a driver of conflict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main drivers of clonflict per whether the respondent is the head of the household</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drought is the main response for those who are not the head of the household. While for head of households we find more diverse response like conflict and governance which almost never appear for respondent who are not head of household.</t>
+    <t xml:space="preserve">It is quite interesting to see that only head of households mention political tension as a driver of conflict. And this even though it is someting quite often mentionned by people who are indeed head of households.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main drivers of clonflict depend to whether the respondent is the head of the household</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For factors of instability we find the same thing. Although Conflict is very often considered as a factor of instability by head of households, this is almost never even mentionned by people who are not head of households. Finaly main drivers of instability are :
+- Drought and to a lesser extent level of income and access to basic services for non head of households
+- Drought, Conflict, Level of incomes and Access to health for head of households</t>
   </si>
   <si>
     <t xml:space="preserve">Main drivers of instability depending on whether the respondent is the head of the household</t>
@@ -908,7 +922,7 @@
     <t xml:space="preserve">clan</t>
   </si>
   <si>
-    <t xml:space="preserve">Perception of clan favoritism seems particularly different from one clan to another</t>
+    <t xml:space="preserve">Perception of clan favoritism seems particularly different from one clan to another. It seems quite important for Tuni clans for example but not so much for Jajeer and Hawiye.</t>
   </si>
   <si>
     <t xml:space="preserve">Clan</t>
@@ -920,7 +934,7 @@
     <t xml:space="preserve">Importance of Clan Favoritism in trust of government per Clan</t>
   </si>
   <si>
-    <t xml:space="preserve">The trust in Jubaland seems highly correlated to the clans, for instance Tuni, Abgaal, Biida, Habargaadir and Reer Barawe clans are very unlikely to trust the Jubaland.</t>
+    <t xml:space="preserve">The trust in Jubaland seems also highly correlated to the clans. And globaly it seems that clans who believe that clan favoritism is an issue to trust the government are the same who do not have much trust in Jubaland.</t>
   </si>
   <si>
     <t xml:space="preserve">11a)What is your  Clan</t>
@@ -929,52 +943,28 @@
     <t xml:space="preserve">Level of trust in Jubaland per clan</t>
   </si>
   <si>
-    <t xml:space="preserve">subdistrict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subdistrict</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate in formal school changes quite a lot from one subdistrict to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sub-District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of children scholarized in formal schools per Sub-District</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The scholarization rate of boys in formal school changes quite a lot from one subdistrict to another</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Percentage of boys scholarized in formal schools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distribution of Percentage of boys scholarized in formal schools per Sub-District</t>
-  </si>
-  <si>
     <t xml:space="preserve">systm2</t>
   </si>
   <si>
-    <t xml:space="preserve">It changes quite a lot from one Sub-District to another in Jamaale, Marka and Kismayo</t>
+    <t xml:space="preserve">It seems that around some schools (Qamqam, Jibril Macalin Barow, Sh Bimalow and Yontoy people agree that the provision of education by the government has improved.</t>
   </si>
   <si>
     <t xml:space="preserve">How has the provision of education by the government changed?</t>
   </si>
   <si>
-    <t xml:space="preserve">Change in the the provision of education by the government by Sub-District</t>
+    <t xml:space="preserve">Change in the the provision of education by the government by School</t>
   </si>
   <si>
     <t xml:space="preserve">systm3</t>
   </si>
   <si>
-    <t xml:space="preserve">It changes quite a lot from one Sub-District to another in Marka and Kismayo</t>
+    <t xml:space="preserve">Only in Qamqam it seems that the provision of security by the government has improved.</t>
   </si>
   <si>
     <t xml:space="preserve">How has the provision of Infrastructures by the government changed?</t>
   </si>
   <si>
-    <t xml:space="preserve">Evolution of provision of security by the government per Sub-District</t>
+    <t xml:space="preserve">Evolution of provision of security by the government per School</t>
   </si>
 </sst>
 </file>
@@ -991,6 +981,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1013,6 +1004,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1103,31 +1095,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="true">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F81" activeCellId="0" sqref="F81"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="11" style="0" width="8.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="11" style="0" width="8.68"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1161,37 +1153,40 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="0" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1199,31 +1194,31 @@
         <v>1</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1231,31 +1226,31 @@
         <v>2</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1263,31 +1258,31 @@
         <v>2</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1295,340 +1290,373 @@
         <v>3</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L8" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="59.7" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="59.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L17" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="L18" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,31 +1664,31 @@
         <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1668,31 +1696,31 @@
         <v>17</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1700,31 +1728,31 @@
         <v>18</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="J21" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="K21" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="K21" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,31 +1760,31 @@
         <v>19</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1764,31 +1792,31 @@
         <v>20</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1796,415 +1824,415 @@
         <v>21</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C26" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>100</v>
-      </c>
       <c r="F26" s="0" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2212,25 +2240,25 @@
         <v>34</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2238,31 +2266,31 @@
         <v>35</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2270,31 +2298,31 @@
         <v>36</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2302,31 +2330,31 @@
         <v>37</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I40" s="0" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2334,1196 +2362,1140 @@
         <v>38</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="D43" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>169</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I44" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="35.05" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C49" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="D49" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="D49" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>194</v>
-      </c>
       <c r="F49" s="0" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="57.45" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="23.85" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="K56" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D56" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F56" s="0" t="s">
-        <v>227</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="H56" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J56" s="0" t="s">
-        <v>229</v>
-      </c>
-      <c r="K56" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B57" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D57" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="F57" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="K57" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D57" s="0" t="s">
-        <v>226</v>
-      </c>
-      <c r="F57" s="0" t="s">
-        <v>231</v>
-      </c>
-      <c r="G57" s="0" t="s">
-        <v>232</v>
-      </c>
-      <c r="H57" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J57" s="0" t="s">
-        <v>233</v>
-      </c>
-      <c r="K57" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B59" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C59" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="F59" s="0" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B61" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C61" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D61" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C61" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="D61" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="F61" s="0" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="46.25" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I64" s="0" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B65" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="C65" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="D65" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="C65" s="0" t="s">
-        <v>253</v>
-      </c>
-      <c r="D65" s="0" t="s">
-        <v>226</v>
-      </c>
       <c r="F65" s="0" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I67" s="0" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C68" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="D68" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="F68" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="G68" s="0" t="s">
         <v>263</v>
       </c>
-      <c r="D68" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="F68" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>259</v>
-      </c>
       <c r="I68" s="0" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L73" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F74" s="0" t="s">
-        <v>279</v>
+        <v>14</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>41</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="K76" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>289</v>
+        <v>24</v>
       </c>
       <c r="C77" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="D77" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="G77" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="I77" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="J77" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="K77" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D77" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F77" s="0" t="s">
-        <v>291</v>
-      </c>
-      <c r="G77" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H77" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="J77" s="0" t="s">
-        <v>293</v>
-      </c>
-      <c r="K77" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>289</v>
-      </c>
       <c r="C78" s="0" t="s">
-        <v>24</v>
+        <v>297</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="H78" s="0" t="s">
-        <v>295</v>
+        <v>232</v>
+      </c>
+      <c r="I78" s="0" t="s">
+        <v>299</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B79" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C79" s="0" t="s">
-        <v>297</v>
-      </c>
-      <c r="D79" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F79" s="0" t="s">
-        <v>298</v>
-      </c>
-      <c r="G79" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I79" s="0" t="s">
-        <v>299</v>
-      </c>
-      <c r="J79" s="0" t="s">
-        <v>300</v>
-      </c>
-      <c r="K79" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B80" s="0" t="s">
-        <v>289</v>
-      </c>
-      <c r="C80" s="0" t="s">
-        <v>301</v>
-      </c>
-      <c r="D80" s="0" t="s">
-        <v>290</v>
-      </c>
-      <c r="F80" s="0" t="s">
-        <v>302</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>292</v>
-      </c>
-      <c r="I80" s="0" t="s">
-        <v>303</v>
-      </c>
-      <c r="J80" s="0" t="s">
-        <v>304</v>
-      </c>
-      <c r="K80" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="B1:K80">
-    <filterColumn colId="3">
-      <customFilters and="true">
-        <customFilter operator="equal" val="Other"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:K78"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/graphs.xlsx
+++ b/graphs.xlsx
@@ -1101,25 +1101,25 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B55" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A55" activeCellId="0" sqref="A55"/>
+      <selection pane="bottomRight" activeCell="D78" activeCellId="0" sqref="D78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="62.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="22.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="11" style="0" width="8.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="64" min="11" style="0" width="8.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3445,7 +3445,7 @@
         <v>293</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F77" s="0" t="s">
         <v>294</v>
@@ -3474,7 +3474,7 @@
         <v>297</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>14</v>
+        <v>230</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>298</v>
